--- a/result_files/metadata.xlsx
+++ b/result_files/metadata.xlsx
@@ -3070,16 +3070,48 @@
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="8" t="n"/>
-      <c r="B126" s="8" t="n"/>
-      <c r="C126" s="16" t="n"/>
-      <c r="D126" s="8" t="n"/>
+      <c r="A126" s="8" t="inlineStr">
+        <is>
+          <t>(홍보)KSC2025 카카오X한국정보과학회 AI 에이전트 경진대회(12.17, 여수엑스포컨벤션센터, 서류접수 ~11/18)</t>
+        </is>
+      </c>
+      <c r="B126" s="8" t="inlineStr">
+        <is>
+          <t>공주대학교SW중심대학사업단</t>
+        </is>
+      </c>
+      <c r="C126" s="16" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="D126" s="8" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=139</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="8" t="n"/>
-      <c r="B127" s="8" t="n"/>
-      <c r="C127" s="16" t="n"/>
-      <c r="D127" s="8" t="n"/>
+      <c r="A127" s="8" t="inlineStr">
+        <is>
+          <t>2025년 SW알고리즘 경진대회 수상자 안내</t>
+        </is>
+      </c>
+      <c r="B127" s="8" t="inlineStr">
+        <is>
+          <t>공주대학교SW중심대학사업단</t>
+        </is>
+      </c>
+      <c r="C127" s="16" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="D127" s="8" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=138</t>
+        </is>
+      </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8" t="n"/>

--- a/result_files/metadata.xlsx
+++ b/result_files/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lay51\LLM-Auto-Crawling\result_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1A126-BFB9-417D-8FF0-B49A71DB04FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81309082-4525-4F4A-94EA-D0FD0B227AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6548" yWindow="975" windowWidth="11902" windowHeight="6975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="게시글 목록" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>중심대학</t>
@@ -871,6 +871,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -880,7 +881,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>에세이</t>
@@ -890,6 +891,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -899,7 +901,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>공모전</t>
@@ -909,16 +911,17 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (_25. 10. 1.(</t>
+      <t xml:space="preserve"> ('25. 10. 1.(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>수</t>
@@ -928,6 +931,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>) ~ 10.14.(</t>
@@ -937,7 +941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>화</t>
@@ -947,6 +951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>), 17</t>
@@ -956,7 +961,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>시</t>
@@ -966,6 +971,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -975,7 +981,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>접수</t>
@@ -985,6 +991,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -994,7 +1001,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>안내</t>
@@ -1060,7 +1067,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1329,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
